--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisHN.xlsx
@@ -844,6 +844,30 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,31 +880,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,43 +1222,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1303,58 +1303,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1379,23 +1379,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,9 @@
       <c r="B6" s="37">
         <v>44334</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1449,7 +1451,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1464,7 +1466,9 @@
       <c r="B7" s="76">
         <v>44334</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="76">
+        <v>44336</v>
+      </c>
       <c r="D7" s="77" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1504,7 @@
       </c>
       <c r="S7" s="75"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1513,7 +1517,9 @@
       <c r="B8" s="37">
         <v>44334</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44336</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +1559,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1588,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1611,7 +1617,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1640,7 +1646,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1700,7 +1706,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1735,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1764,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3018,6 +3024,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3029,13 +3042,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3047,7 +3053,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3079,43 +3085,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3160,58 +3166,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3236,23 +3242,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3262,7 +3268,9 @@
       <c r="B6" s="37">
         <v>44334</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>87</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3321,7 +3329,9 @@
       <c r="B7" s="37">
         <v>44334</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44336</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>72</v>
       </c>
@@ -3363,7 +3373,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3392,7 +3402,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3431,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3450,7 +3460,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3479,7 +3489,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3508,7 +3518,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3539,7 +3549,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3568,7 +3578,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3597,7 +3607,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3626,7 +3636,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4857,13 +4867,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4875,6 +4878,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4885,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4918,43 +4928,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4999,58 +5009,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5075,23 +5085,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,7 +5111,9 @@
       <c r="B6" s="37">
         <v>44334</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -5145,7 +5157,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5160,7 +5172,9 @@
       <c r="B7" s="37">
         <v>44334</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44336</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
@@ -5206,7 +5220,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5219,7 +5233,9 @@
       <c r="B8" s="37">
         <v>44334</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44336</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
@@ -5263,7 +5279,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5276,7 +5292,9 @@
       <c r="B9" s="37">
         <v>44334</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44336</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>66</v>
       </c>
@@ -5318,7 +5336,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5331,7 +5349,9 @@
       <c r="B10" s="37">
         <v>44334</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44336</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
@@ -5373,7 +5393,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5386,7 +5406,9 @@
       <c r="B11" s="37">
         <v>44334</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="37">
+        <v>44336</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5430,7 +5452,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5443,7 +5465,9 @@
       <c r="B12" s="37">
         <v>44334</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="37">
+        <v>44336</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>66</v>
       </c>
@@ -5487,7 +5511,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5502,7 +5526,9 @@
       <c r="B13" s="37">
         <v>44334</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="37">
+        <v>44336</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>66</v>
       </c>
@@ -5544,7 +5570,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5557,7 +5583,9 @@
       <c r="B14" s="37">
         <v>44334</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="37">
+        <v>44336</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
@@ -5599,7 +5627,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5612,7 +5640,9 @@
       <c r="B15" s="37">
         <v>44334</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="37">
+        <v>44336</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>66</v>
       </c>
@@ -5654,7 +5684,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5667,7 +5697,9 @@
       <c r="B16" s="37">
         <v>44334</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="37">
+        <v>44336</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>66</v>
       </c>
@@ -5711,7 +5743,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5724,7 +5756,9 @@
       <c r="B17" s="37">
         <v>44334</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="37">
+        <v>44336</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>66</v>
       </c>
@@ -5777,7 +5811,9 @@
       <c r="B18" s="37">
         <v>44334</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="37">
+        <v>44336</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>66</v>
       </c>
@@ -5832,7 +5868,9 @@
       <c r="B19" s="37">
         <v>44334</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="37">
+        <v>44336</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>66</v>
       </c>
@@ -7022,13 +7060,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7040,6 +7071,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7083,43 +7121,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7164,58 +7202,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="94" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7240,23 +7278,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7282,7 +7320,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7313,7 +7351,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7342,7 +7380,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7371,7 +7409,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7400,7 +7438,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7429,7 +7467,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7458,7 +7496,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7489,7 +7527,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7518,7 +7556,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7547,7 +7585,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7576,7 +7614,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8807,13 +8845,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8825,6 +8856,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -394,6 +394,36 @@
   </si>
   <si>
     <t>Thiết bị có dấu hiệu nước vào gây lỗi nguồn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30006</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Thay mosfet</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30011</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục tràn bộ nhớ tin nhắn</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, khởi tại lại thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170615 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30051</t>
   </si>
 </sst>
 </file>
@@ -599,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -756,9 +786,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1189,21 +1216,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="71" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1222,46 +1249,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1279,14 +1306,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1303,99 +1330,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,65 +1477,65 @@
         <v>25</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="90" t="s">
+      <c r="T6" s="63"/>
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
+      <c r="A7" s="74">
         <v>2</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="75">
         <v>44334</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="75">
         <v>44336</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="77">
         <v>867717030432299</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="75" t="s">
+      <c r="I7" s="78"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="77" t="s">
+      <c r="N7" s="79"/>
+      <c r="O7" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="81" t="s">
+      <c r="Q7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="77" t="s">
+      <c r="R7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="75"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="91"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1558,112 +1585,200 @@
         <v>31</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="91"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038035247</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="I9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="91"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183035892152</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="91"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183035898159</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="91"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1674,21 +1789,21 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="90" t="s">
+      <c r="T12" s="63"/>
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -1705,19 +1820,19 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="91"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -1734,25 +1849,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="91"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1764,24 +1879,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1793,18 +1908,18 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -1822,22 +1937,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1857,14 +1972,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1876,7 +1991,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="62" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1888,14 +2003,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1912,7 +2027,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1920,14 +2035,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1944,7 +2059,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1952,14 +2067,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1984,14 +2099,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2011,14 +2126,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2038,14 +2153,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2057,7 +2172,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="62" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2069,14 +2184,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2101,14 +2216,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2133,14 +2248,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2165,14 +2280,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2197,14 +2312,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2229,14 +2344,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2253,7 +2368,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2261,14 +2376,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2293,14 +2408,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2325,14 +2440,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2357,14 +2472,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2381,7 +2496,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2389,14 +2504,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2413,7 +2528,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2421,14 +2536,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2445,7 +2560,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2453,14 +2568,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2480,14 +2595,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2507,14 +2622,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2539,14 +2654,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2571,14 +2686,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2598,14 +2713,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2625,14 +2740,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2661,14 +2776,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2700,14 +2815,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2739,14 +2854,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2778,14 +2893,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2798,7 +2913,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -2820,14 +2935,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2848,14 +2963,14 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2876,14 +2991,14 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2904,14 +3019,14 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2932,14 +3047,14 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2960,14 +3075,14 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2988,14 +3103,14 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -3052,21 +3167,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="71" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3085,46 +3200,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3142,14 +3257,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3166,99 +3281,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3313,14 +3428,14 @@
       <c r="S6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="90" t="s">
+      <c r="T6" s="72"/>
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3372,141 +3487,257 @@
         <v>25</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="91"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="72"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="39">
+        <v>865209034366428</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
+      <c r="I8" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="91"/>
+      <c r="O8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="72"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73"/>
+      <c r="W8" s="72"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868345035606367</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="91"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="72"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="39">
+        <v>869627031758428</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
+      <c r="I10" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="91"/>
+      <c r="O10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="72"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="73"/>
+      <c r="W10" s="72"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
+      <c r="B11" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44342</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868345035586528</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="91"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="73"/>
+      <c r="W11" s="72"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3517,21 +3748,21 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="90" t="s">
+      <c r="T12" s="72"/>
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="73"/>
+      <c r="W12" s="72"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -3548,19 +3779,19 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="91"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="73"/>
+      <c r="W13" s="72"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -3577,25 +3808,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="91"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="72"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3607,24 +3838,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3636,18 +3867,18 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="73"/>
+      <c r="W16" s="72"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -3665,22 +3896,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
+      <c r="U17" s="72"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="72"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3700,14 +3931,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3719,7 +3950,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3731,14 +3962,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3755,7 +3986,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3763,14 +3994,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3795,14 +4026,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3819,7 +4050,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3827,14 +4058,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3854,14 +4085,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3881,14 +4112,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3900,7 +4131,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3912,14 +4143,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3944,14 +4175,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3976,14 +4207,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4008,14 +4239,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4040,14 +4271,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4072,14 +4303,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4104,14 +4335,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4136,14 +4367,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4160,7 +4391,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -4168,14 +4399,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4200,14 +4431,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4224,7 +4455,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4232,14 +4463,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4256,7 +4487,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4264,14 +4495,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4288,7 +4519,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4296,14 +4527,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4323,14 +4554,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4350,14 +4581,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4382,14 +4613,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4414,14 +4645,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4441,14 +4672,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4468,14 +4699,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4504,14 +4735,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4543,14 +4774,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4582,14 +4813,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4621,14 +4852,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4641,7 +4872,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4663,14 +4894,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4691,14 +4922,14 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4719,14 +4950,14 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4747,14 +4978,14 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4775,14 +5006,14 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4803,14 +5034,14 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4831,14 +5062,14 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4902,14 +5133,14 @@
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="71" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4928,46 +5159,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -4985,14 +5216,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -5009,99 +5240,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="81"/>
+      <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5156,14 +5387,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="90" t="s">
+      <c r="T6" s="72"/>
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="73"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5219,12 +5450,12 @@
         <v>108</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="91"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="73"/>
+      <c r="W7" s="72"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5278,12 +5509,12 @@
         <v>25</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="91"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73"/>
+      <c r="W8" s="72"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5335,12 +5566,12 @@
         <v>24</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="91"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="72"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5392,12 +5623,12 @@
         <v>70</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="91"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="73"/>
+      <c r="W10" s="72"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5451,12 +5682,12 @@
         <v>35</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="91"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="73"/>
+      <c r="W11" s="72"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5481,7 +5712,7 @@
       <c r="H12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>110</v>
       </c>
       <c r="J12" s="40" t="s">
@@ -5510,14 +5741,14 @@
         <v>24</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="90" t="s">
+      <c r="T12" s="72"/>
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="73"/>
+      <c r="W12" s="72"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5569,12 +5800,12 @@
         <v>30</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="91"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="73"/>
+      <c r="W13" s="72"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5626,12 +5857,12 @@
         <v>24</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="91"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="72"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5684,11 +5915,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5713,7 +5944,7 @@
       <c r="H16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>111</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -5743,11 +5974,11 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="73"/>
+      <c r="W16" s="72"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5800,9 +6031,9 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="73"/>
+      <c r="U17" s="72"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="72"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5827,7 +6058,7 @@
       <c r="H18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="56" t="s">
         <v>100</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -5884,7 +6115,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="56" t="s">
         <v>102</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -5912,7 +6143,7 @@
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5924,14 +6155,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5956,14 +6187,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5988,14 +6219,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -6020,14 +6251,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -6047,14 +6278,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -6074,14 +6305,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -6093,7 +6324,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6105,14 +6336,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -6137,14 +6368,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -6169,14 +6400,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -6201,14 +6432,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -6233,14 +6464,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6265,14 +6496,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6297,14 +6528,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6329,14 +6560,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6361,14 +6592,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6393,14 +6624,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6425,14 +6656,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6457,14 +6688,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6489,14 +6720,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6516,14 +6747,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6543,14 +6774,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6575,14 +6806,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6607,14 +6838,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6634,14 +6865,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6661,14 +6892,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6697,14 +6928,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6736,14 +6967,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6775,14 +7006,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6814,14 +7045,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6856,14 +7087,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6884,14 +7115,14 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -6912,14 +7143,14 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6940,14 +7171,14 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -6968,14 +7199,14 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -6996,14 +7227,14 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -7024,14 +7255,14 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -7121,43 +7352,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7202,58 +7433,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7278,23 +7509,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7310,7 +7541,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="42"/>
@@ -7320,7 +7551,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7341,7 +7572,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="42"/>
@@ -7351,7 +7582,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7380,7 +7611,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7409,7 +7640,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7438,7 +7669,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7467,7 +7698,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7496,7 +7727,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7527,7 +7758,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7556,7 +7787,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7585,7 +7816,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7614,7 +7845,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
